--- a/Design/Hydraulics.xlsx
+++ b/Design/Hydraulics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,14 +47,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
-    <numFmt numFmtId="165" formatCode="0.00\&quot;"/>
-    <numFmt numFmtId="167" formatCode="0&quot;lb&quot;"/>
-    <numFmt numFmtId="168" formatCode="0&quot;PSI&quot;"/>
-    <numFmt numFmtId="171" formatCode="0.0&quot;In³/sec&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.0&quot;gpm&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00&quot;in/s&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.0&quot;s&quot;"/>
-    <numFmt numFmtId="176" formatCode="0&quot;RPM&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00\&quot;"/>
+    <numFmt numFmtId="165" formatCode="0&quot;lb&quot;"/>
+    <numFmt numFmtId="166" formatCode="0&quot;PSI&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.0&quot;In³/sec&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.0&quot;gpm&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00&quot;in/s&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.0&quot;s&quot;"/>
+    <numFmt numFmtId="171" formatCode="0&quot;RPM&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -93,15 +93,15 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +406,7 @@
   <dimension ref="D5:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="4">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.25">
@@ -448,7 +448,7 @@
       </c>
       <c r="E8" s="2">
         <f>E7*E6</f>
-        <v>25132.741228718343</v>
+        <v>18849.555921538758</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
